--- a/Deep Learning/CNN/Results/model performance.xlsx
+++ b/Deep Learning/CNN/Results/model performance.xlsx
@@ -499,16 +499,16 @@
         <v>0.1727765380937201</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3716814159292036</v>
+        <v>0.3752711496746204</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8115942028985508</v>
+        <v>0.8357487922705314</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5098634294385432</v>
+        <v>0.5179640718562875</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7409783480352847</v>
+        <v>0.7417802726543705</v>
       </c>
     </row>
     <row r="3">
@@ -530,16 +530,16 @@
         <v>0.2401676337846551</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6439393939393939</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="G3" t="n">
         <v>0.8585858585858586</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7359307359307359</v>
+        <v>0.7423580786026202</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8032258064516129</v>
+        <v>0.8096774193548387</v>
       </c>
     </row>
     <row r="4">
@@ -561,16 +561,16 @@
         <v>0.2071586277173913</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4781144781144781</v>
+        <v>0.4863861386138614</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8336594911937377</v>
+        <v>0.7690802348336595</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6077032810271041</v>
+        <v>0.5959059893858983</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7310513447432763</v>
+        <v>0.7393643031784841</v>
       </c>
     </row>
     <row r="5">
@@ -592,16 +592,16 @@
         <v>0.5425164088138772</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7631856540084389</v>
+        <v>0.7628272251308901</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8025513033832501</v>
+        <v>0.8080976150859678</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7823736144904028</v>
+        <v>0.7848101265822784</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7637910798122066</v>
+        <v>0.7655516431924883</v>
       </c>
     </row>
   </sheetData>
